--- a/code/screpo/outputs/results/MonmouthComparison.xlsx
+++ b/code/screpo/outputs/results/MonmouthComparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ah4c20\Asyl\PostDoc\SOCIALCARE\code\screpo\outputs\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CD6395-1947-45C1-AD99-E42FA6A42F81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E992459E-133F-403E-9183-A409ACFD67BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Date</t>
   </si>
@@ -95,6 +95,18 @@
     <t>Paper Abi</t>
   </si>
   <si>
+    <t>AitH AbiOsrm</t>
+  </si>
+  <si>
+    <t>MK AbiOsrm</t>
+  </si>
+  <si>
+    <t>WB AbiOsrm</t>
+  </si>
+  <si>
+    <t>Paper AbiOsrm</t>
+  </si>
+  <si>
     <t>Total DST</t>
   </si>
   <si>
@@ -165,6 +177,18 @@
   </si>
   <si>
     <t>Paper Best</t>
+  </si>
+  <si>
+    <t>AitH Osrm Best</t>
+  </si>
+  <si>
+    <t>MK Osrm Best</t>
+  </si>
+  <si>
+    <t>WB Osrm Best</t>
+  </si>
+  <si>
+    <t>Paper Osrm Best</t>
   </si>
 </sst>
 </file>
@@ -553,7 +577,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR8"/>
+  <dimension ref="A1:AZ8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD8"/>
@@ -561,7 +585,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:44" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:52" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,16 +646,16 @@
       <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Y1" s="4" t="s">
@@ -658,16 +682,16 @@
       <c r="AF1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AG1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AH1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AI1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AK1" s="5" t="s">
@@ -694,8 +718,32 @@
       <c r="AR1" s="5" t="s">
         <v>43</v>
       </c>
+      <c r="AS1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="2" spans="1:44" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:52" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>44137</v>
       </c>
@@ -758,90 +806,118 @@
         <v>-2130</v>
       </c>
       <c r="U2" s="9">
+        <v>-202.33799999999999</v>
+      </c>
+      <c r="V2" s="9">
+        <v>-224.821</v>
+      </c>
+      <c r="W2" s="9">
+        <v>-289.33800000000002</v>
+      </c>
+      <c r="X2" s="9">
+        <v>-2130</v>
+      </c>
+      <c r="Y2" s="9">
         <v>5851.16</v>
       </c>
-      <c r="V2" s="9">
+      <c r="Z2" s="9">
         <v>687</v>
       </c>
-      <c r="W2" s="9">
+      <c r="AA2" s="9">
         <v>1009.16</v>
       </c>
-      <c r="X2" s="9">
+      <c r="AB2" s="9">
         <v>1166.9715000000001</v>
       </c>
-      <c r="Y2" s="9">
+      <c r="AC2" s="9">
         <v>569.09</v>
       </c>
-      <c r="Z2" s="9">
+      <c r="AD2" s="9">
         <v>-65422.77</v>
       </c>
-      <c r="AA2" s="9">
+      <c r="AE2" s="9">
         <v>-230.84</v>
       </c>
-      <c r="AB2" s="9">
+      <c r="AF2" s="9">
         <v>-65512.77</v>
       </c>
-      <c r="AC2" s="9">
+      <c r="AG2" s="9">
         <v>-1723.77</v>
       </c>
-      <c r="AD2" s="10">
+      <c r="AH2" s="10">
         <v>5</v>
       </c>
-      <c r="AE2" s="9">
+      <c r="AI2" s="9">
         <v>670.29817439999999</v>
       </c>
-      <c r="AF2" s="10">
+      <c r="AJ2" s="10">
         <v>61</v>
       </c>
-      <c r="AG2" s="7" t="str">
-        <f>IF(I2&lt;U2, "Abicare", "DST")</f>
-        <v>DST</v>
-      </c>
-      <c r="AH2" s="7" t="str">
-        <f>IF(J2&lt;V2, "Abicare", "DST")</f>
-        <v>DST</v>
-      </c>
-      <c r="AI2" s="7" t="str">
-        <f>IF(K2&lt;V2, "Abicare","DST")</f>
-        <v>Abicare</v>
-      </c>
-      <c r="AJ2" s="7" t="str">
-        <f t="shared" ref="AJ2:AJ8" si="0">IF(L2&lt;W2, "Abicare", "DST")</f>
-        <v>DST</v>
-      </c>
       <c r="AK2" s="7" t="str">
-        <f>IF(M2&lt;W2, "Abicare", "DST")</f>
-        <v>DST</v>
-      </c>
-      <c r="AL2" s="11">
+        <f t="shared" ref="AK2:AL8" si="0">IF(I2&lt;Y2, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AL2" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>DST</v>
+      </c>
+      <c r="AM2" s="7" t="str">
+        <f>IF(K2&lt;Z2, "AbiOSRM","DST")</f>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AN2" s="7" t="str">
+        <f t="shared" ref="AN2:AN8" si="1">IF(L2&lt;AA2, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AO2" s="7" t="str">
+        <f>IF(M2&lt;AA2, "AbiOSRM", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AP2" s="11">
         <v>0</v>
       </c>
-      <c r="AM2" s="7" t="str">
-        <f>IF(O2&lt;Y2, "Abicare","DST")</f>
-        <v>Abicare</v>
-      </c>
-      <c r="AN2" s="7" t="str">
-        <f>IF(P2&lt;Y2, "Abicare", "DST")</f>
-        <v>Abicare</v>
-      </c>
-      <c r="AO2" s="7" t="str">
-        <f>IF(Q2&gt;Z2,"Abicare","DST")</f>
-        <v>Abicare</v>
-      </c>
-      <c r="AP2" s="7" t="str">
-        <f t="shared" ref="AP2:AR8" si="1">IF(R2&gt;AA2, "Abicare", "DST")</f>
-        <v>DST</v>
-      </c>
       <c r="AQ2" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(O2&lt;AC2, "Abicare","DST")</f>
         <v>Abicare</v>
       </c>
       <c r="AR2" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(P2&lt;AC2, "AbiOSRM", "DST")</f>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AS2" s="7" t="str">
+        <f>IF(Q2&gt;AD2,"Abicare","DST")</f>
+        <v>Abicare</v>
+      </c>
+      <c r="AT2" s="7" t="str">
+        <f t="shared" ref="AT2:AV8" si="2">IF(R2&gt;AE2, "Abicare", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AU2" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Abicare</v>
+      </c>
+      <c r="AV2" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>DST</v>
+      </c>
+      <c r="AW2" s="7" t="str">
+        <f>IF(U2&gt;AD2, "AbiOSRM", "DST")</f>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AX2" s="7" t="str">
+        <f>IF(V2&gt;AE2, "AbiOSRM", "DST")</f>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AY2" s="7" t="str">
+        <f>IF(W2&gt;AF2, "AbiOSRM", "DST")</f>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AZ2" s="7" t="str">
+        <f>IF(X2&gt;AG2, "AbiOSRM", "DST")</f>
         <v>DST</v>
       </c>
     </row>
-    <row r="3" spans="1:44" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:52" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>44138</v>
       </c>
@@ -873,7 +949,7 @@
         <v>1026.3800000000001</v>
       </c>
       <c r="M3" s="9">
-        <f t="shared" ref="M3:M8" si="2">I3-H3-K3</f>
+        <f t="shared" ref="M3:M8" si="3">I3-H3-K3</f>
         <v>1079.1100000000001</v>
       </c>
       <c r="N3" s="9">
@@ -898,90 +974,118 @@
         <v>-1755</v>
       </c>
       <c r="U3" s="9">
+        <v>-202.767</v>
+      </c>
+      <c r="V3" s="9">
+        <v>-225.297</v>
+      </c>
+      <c r="W3" s="9">
+        <v>-277.767</v>
+      </c>
+      <c r="X3" s="9">
+        <v>-1755</v>
+      </c>
+      <c r="Y3" s="9">
         <v>5758.7</v>
       </c>
-      <c r="V3" s="9">
+      <c r="Z3" s="9">
         <v>745.88</v>
       </c>
-      <c r="W3" s="9">
+      <c r="AA3" s="9">
         <v>737.81</v>
       </c>
-      <c r="X3" s="9">
+      <c r="AB3" s="9">
         <v>1293.8867</v>
       </c>
-      <c r="Y3" s="9">
+      <c r="AC3" s="9">
         <v>662.54790000000003</v>
       </c>
-      <c r="Z3" s="9">
+      <c r="AD3" s="9">
         <v>-533990.43000000005</v>
       </c>
-      <c r="AA3" s="9">
+      <c r="AE3" s="9">
         <v>-265.82</v>
       </c>
-      <c r="AB3" s="9">
+      <c r="AF3" s="9">
         <v>-534066.74</v>
       </c>
-      <c r="AC3" s="9">
+      <c r="AG3" s="9">
         <v>-1745.58</v>
       </c>
-      <c r="AD3" s="10">
+      <c r="AH3" s="10">
         <v>5</v>
       </c>
-      <c r="AE3" s="9">
+      <c r="AI3" s="9">
         <v>688.76248099999998</v>
       </c>
-      <c r="AF3" s="10">
+      <c r="AJ3" s="10">
         <v>57</v>
       </c>
-      <c r="AG3" s="7" t="str">
-        <f>IF(I3&lt;U3, "Abicare", "DST")</f>
-        <v>DST</v>
-      </c>
-      <c r="AH3" s="7" t="str">
-        <f>IF(J3&lt;V3, "Abicare", "DST")</f>
-        <v>Abicare</v>
-      </c>
-      <c r="AI3" s="7" t="str">
-        <f t="shared" ref="AI3:AI8" si="3">IF(K3&lt;V3, "Abicare","DST")</f>
-        <v>Abicare</v>
-      </c>
-      <c r="AJ3" s="7" t="str">
+      <c r="AK3" s="7" t="str">
         <f t="shared" si="0"/>
         <v>DST</v>
       </c>
-      <c r="AK3" s="7" t="str">
-        <f t="shared" ref="AK3:AK8" si="4">IF(M3&lt;W3, "Abicare", "DST")</f>
-        <v>DST</v>
-      </c>
-      <c r="AL3" s="11">
+      <c r="AL3" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Abicare</v>
+      </c>
+      <c r="AM3" s="7" t="str">
+        <f t="shared" ref="AM3:AM8" si="4">IF(K3&lt;Z3, "AbiOSRM","DST")</f>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AN3" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>DST</v>
+      </c>
+      <c r="AO3" s="7" t="str">
+        <f t="shared" ref="AO3:AO8" si="5">IF(M3&lt;AA3, "AbiOSRM", "DST")</f>
+        <v>DST</v>
+      </c>
+      <c r="AP3" s="11">
         <v>0</v>
       </c>
-      <c r="AM3" s="7" t="str">
-        <f t="shared" ref="AM3:AM8" si="5">IF(O3&lt;Y3, "Abicare","DST")</f>
-        <v>Abicare</v>
-      </c>
-      <c r="AN3" s="7" t="str">
-        <f t="shared" ref="AN3:AN8" si="6">IF(P3&lt;Y3, "Abicare", "DST")</f>
-        <v>Abicare</v>
-      </c>
-      <c r="AO3" s="7" t="str">
-        <f t="shared" ref="AO3:AO8" si="7">IF(Q3&gt;Z3,"Abicare","DST")</f>
-        <v>Abicare</v>
-      </c>
-      <c r="AP3" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Abicare</v>
-      </c>
       <c r="AQ3" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AQ3:AQ8" si="6">IF(O3&lt;AC3, "Abicare","DST")</f>
         <v>Abicare</v>
       </c>
       <c r="AR3" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AR3:AR8" si="7">IF(P3&lt;AC3, "AbiOSRM", "DST")</f>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AS3" s="7" t="str">
+        <f t="shared" ref="AS3:AS8" si="8">IF(Q3&gt;AD3,"Abicare","DST")</f>
+        <v>Abicare</v>
+      </c>
+      <c r="AT3" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Abicare</v>
+      </c>
+      <c r="AU3" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Abicare</v>
+      </c>
+      <c r="AV3" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>DST</v>
+      </c>
+      <c r="AW3" s="7" t="str">
+        <f t="shared" ref="AW3:AZ8" si="9">IF(U3&gt;AD3, "AbiOSRM", "DST")</f>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AX3" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AY3" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AZ3" s="7" t="str">
+        <f t="shared" si="9"/>
         <v>DST</v>
       </c>
     </row>
-    <row r="4" spans="1:44" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:52" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>44139</v>
       </c>
@@ -1013,7 +1117,7 @@
         <v>775.21659999999997</v>
       </c>
       <c r="M4" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>822.58299999999997</v>
       </c>
       <c r="N4" s="9">
@@ -1038,90 +1142,118 @@
         <v>-1545</v>
       </c>
       <c r="U4" s="9">
+        <v>-216.72499999999999</v>
+      </c>
+      <c r="V4" s="9">
+        <v>-240.80600000000001</v>
+      </c>
+      <c r="W4" s="9">
+        <v>-305.22500000000002</v>
+      </c>
+      <c r="X4" s="9">
+        <v>-1545</v>
+      </c>
+      <c r="Y4" s="9">
         <v>6044.82</v>
       </c>
-      <c r="V4" s="9">
+      <c r="Z4" s="9">
         <v>895.18</v>
       </c>
-      <c r="W4" s="9">
+      <c r="AA4" s="9">
         <v>559.64</v>
       </c>
-      <c r="X4" s="9">
+      <c r="AB4" s="9">
         <v>1452.1433</v>
       </c>
-      <c r="Y4" s="9">
+      <c r="AC4" s="9">
         <v>822.69849999999997</v>
       </c>
-      <c r="Z4" s="9">
+      <c r="AD4" s="9">
         <v>-467801.89</v>
       </c>
-      <c r="AA4" s="9">
+      <c r="AE4" s="9">
         <v>-313.31</v>
       </c>
-      <c r="AB4" s="9">
+      <c r="AF4" s="9">
         <v>-467891.16</v>
       </c>
-      <c r="AC4" s="9">
+      <c r="AG4" s="9">
         <v>-1683.58</v>
       </c>
-      <c r="AD4" s="10">
+      <c r="AH4" s="10">
         <v>5</v>
       </c>
-      <c r="AE4" s="9">
+      <c r="AI4" s="9">
         <v>686.739779</v>
       </c>
-      <c r="AF4" s="10">
+      <c r="AJ4" s="10">
         <v>46</v>
       </c>
-      <c r="AG4" s="7" t="str">
-        <f>IF(I4&lt;U4, "Abicare", "DST")</f>
-        <v>DST</v>
-      </c>
-      <c r="AH4" s="7" t="str">
-        <f>IF(J4&lt;V4, "Abicare", "DST")</f>
-        <v>Abicare</v>
-      </c>
-      <c r="AI4" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AJ4" s="7" t="str">
+      <c r="AK4" s="7" t="str">
         <f t="shared" si="0"/>
         <v>DST</v>
       </c>
-      <c r="AK4" s="7" t="str">
+      <c r="AL4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Abicare</v>
+      </c>
+      <c r="AM4" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>DST</v>
-      </c>
-      <c r="AL4" s="11">
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AN4" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>DST</v>
+      </c>
+      <c r="AO4" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>DST</v>
+      </c>
+      <c r="AP4" s="11">
         <v>0</v>
       </c>
-      <c r="AM4" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AN4" s="7" t="str">
+      <c r="AQ4" s="7" t="str">
         <f t="shared" si="6"/>
         <v>Abicare</v>
       </c>
-      <c r="AO4" s="7" t="str">
+      <c r="AR4" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AP4" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AQ4" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AR4" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Abicare</v>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AS4" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Abicare</v>
+      </c>
+      <c r="AT4" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Abicare</v>
+      </c>
+      <c r="AU4" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Abicare</v>
+      </c>
+      <c r="AV4" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Abicare</v>
+      </c>
+      <c r="AW4" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AX4" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AY4" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AZ4" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>AbiOSRM</v>
       </c>
     </row>
-    <row r="5" spans="1:44" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:52" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>44140</v>
       </c>
@@ -1153,7 +1285,7 @@
         <v>1661.7999</v>
       </c>
       <c r="M5" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1714.143</v>
       </c>
       <c r="N5" s="9">
@@ -1178,90 +1310,118 @@
         <v>-2459.9899999999998</v>
       </c>
       <c r="U5" s="9">
+        <v>-223.75700000000001</v>
+      </c>
+      <c r="V5" s="9">
+        <v>-248.619</v>
+      </c>
+      <c r="W5" s="9">
+        <v>-312.25700000000001</v>
+      </c>
+      <c r="X5" s="9">
+        <v>-2460</v>
+      </c>
+      <c r="Y5" s="9">
         <v>6955.46</v>
       </c>
-      <c r="V5" s="9">
+      <c r="Z5" s="9">
         <v>687.87</v>
       </c>
-      <c r="W5" s="9">
+      <c r="AA5" s="9">
         <v>1527.59</v>
       </c>
-      <c r="X5" s="9">
+      <c r="AB5" s="9">
         <v>1416.8298</v>
       </c>
-      <c r="Y5" s="9">
+      <c r="AC5" s="9">
         <v>578.19860000000006</v>
       </c>
-      <c r="Z5" s="9">
+      <c r="AD5" s="9">
         <v>-16839.689999999999</v>
       </c>
-      <c r="AA5" s="9">
+      <c r="AE5" s="9">
         <v>-229.51</v>
       </c>
-      <c r="AB5" s="9">
+      <c r="AF5" s="9">
         <v>-16928.189999999999</v>
       </c>
-      <c r="AC5" s="9">
+      <c r="AG5" s="9">
         <v>-2218.77</v>
       </c>
-      <c r="AD5" s="10">
+      <c r="AH5" s="10">
         <v>5</v>
       </c>
-      <c r="AE5" s="9">
+      <c r="AI5" s="9">
         <v>717.74900000000002</v>
       </c>
-      <c r="AF5" s="10">
+      <c r="AJ5" s="10">
         <v>35</v>
       </c>
-      <c r="AG5" s="7" t="str">
-        <f>IF(I5&lt;U5, "Abicare", "DST")</f>
-        <v>DST</v>
-      </c>
-      <c r="AH5" s="7" t="str">
-        <f>IF(J5&lt;V5, "Abicare", "DST")</f>
-        <v>DST</v>
-      </c>
-      <c r="AI5" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>DST</v>
-      </c>
-      <c r="AJ5" s="7" t="str">
+      <c r="AK5" s="7" t="str">
         <f t="shared" si="0"/>
         <v>DST</v>
       </c>
-      <c r="AK5" s="7" t="str">
+      <c r="AL5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>DST</v>
+      </c>
+      <c r="AM5" s="7" t="str">
         <f t="shared" si="4"/>
         <v>DST</v>
       </c>
-      <c r="AL5" s="11">
+      <c r="AN5" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>DST</v>
+      </c>
+      <c r="AO5" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>DST</v>
+      </c>
+      <c r="AP5" s="11">
         <v>0</v>
       </c>
-      <c r="AM5" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AN5" s="7" t="str">
+      <c r="AQ5" s="7" t="str">
         <f t="shared" si="6"/>
         <v>Abicare</v>
       </c>
-      <c r="AO5" s="7" t="str">
+      <c r="AR5" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AP5" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>DST</v>
-      </c>
-      <c r="AQ5" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AR5" s="7" t="str">
-        <f t="shared" si="1"/>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AS5" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Abicare</v>
+      </c>
+      <c r="AT5" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>DST</v>
+      </c>
+      <c r="AU5" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Abicare</v>
+      </c>
+      <c r="AV5" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>DST</v>
+      </c>
+      <c r="AW5" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AX5" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>DST</v>
+      </c>
+      <c r="AY5" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AZ5" s="7" t="str">
+        <f t="shared" si="9"/>
         <v>DST</v>
       </c>
     </row>
-    <row r="6" spans="1:44" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:52" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>44141</v>
       </c>
@@ -1293,7 +1453,7 @@
         <v>1505.4833000000001</v>
       </c>
       <c r="M6" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1545.28</v>
       </c>
       <c r="N6" s="9">
@@ -1318,90 +1478,118 @@
         <v>-2369.9989999999998</v>
       </c>
       <c r="U6" s="9">
+        <v>-247.416</v>
+      </c>
+      <c r="V6" s="9">
+        <v>-274.90699999999998</v>
+      </c>
+      <c r="W6" s="9">
+        <v>-326.916</v>
+      </c>
+      <c r="X6" s="9">
+        <v>-2370</v>
+      </c>
+      <c r="Y6" s="9">
         <v>7100.96</v>
       </c>
-      <c r="V6" s="9">
+      <c r="Z6" s="9">
         <v>920.79</v>
       </c>
-      <c r="W6" s="9">
+      <c r="AA6" s="9">
         <v>1095.1600000000001</v>
       </c>
-      <c r="X6" s="9">
+      <c r="AB6" s="9">
         <v>1444.4348</v>
       </c>
-      <c r="Y6" s="9">
+      <c r="AC6" s="9">
         <v>831.14279999999997</v>
       </c>
-      <c r="Z6" s="9">
+      <c r="AD6" s="9">
         <v>-137059.57</v>
       </c>
-      <c r="AA6" s="9">
+      <c r="AE6" s="9">
         <v>-315.38</v>
       </c>
-      <c r="AB6" s="9">
+      <c r="AF6" s="9">
         <v>-137139.09</v>
       </c>
-      <c r="AC6" s="9">
+      <c r="AG6" s="9">
         <v>-2079.35</v>
       </c>
-      <c r="AD6" s="10">
+      <c r="AH6" s="10">
         <v>5</v>
       </c>
-      <c r="AE6" s="9">
+      <c r="AI6" s="9">
         <v>705.19914029999995</v>
       </c>
-      <c r="AF6" s="10">
+      <c r="AJ6" s="10">
         <v>38</v>
       </c>
-      <c r="AG6" s="7" t="str">
-        <f>IF(I6&lt;U6, "Abicare", "DST")</f>
-        <v>DST</v>
-      </c>
-      <c r="AH6" s="7" t="str">
-        <f>IF(J6&lt;V6, "Abicare", "DST")</f>
-        <v>Abicare</v>
-      </c>
-      <c r="AI6" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AJ6" s="7" t="str">
+      <c r="AK6" s="7" t="str">
         <f t="shared" si="0"/>
         <v>DST</v>
       </c>
-      <c r="AK6" s="7" t="str">
+      <c r="AL6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Abicare</v>
+      </c>
+      <c r="AM6" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>DST</v>
-      </c>
-      <c r="AL6" s="11">
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AN6" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>DST</v>
+      </c>
+      <c r="AO6" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>DST</v>
+      </c>
+      <c r="AP6" s="11">
         <v>0</v>
       </c>
-      <c r="AM6" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AN6" s="7" t="str">
+      <c r="AQ6" s="7" t="str">
         <f t="shared" si="6"/>
         <v>Abicare</v>
       </c>
-      <c r="AO6" s="7" t="str">
+      <c r="AR6" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AP6" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AQ6" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AR6" s="7" t="str">
-        <f t="shared" si="1"/>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AS6" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Abicare</v>
+      </c>
+      <c r="AT6" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Abicare</v>
+      </c>
+      <c r="AU6" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Abicare</v>
+      </c>
+      <c r="AV6" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>DST</v>
+      </c>
+      <c r="AW6" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AX6" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AY6" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AZ6" s="7" t="str">
+        <f t="shared" si="9"/>
         <v>DST</v>
       </c>
     </row>
-    <row r="7" spans="1:44" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:52" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>44142</v>
       </c>
@@ -1433,7 +1621,7 @@
         <v>790.93330000000003</v>
       </c>
       <c r="M7" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>823.50300000000004</v>
       </c>
       <c r="N7" s="9">
@@ -1458,90 +1646,118 @@
         <v>-1484.999</v>
       </c>
       <c r="U7" s="9">
+        <v>-198.44900000000001</v>
+      </c>
+      <c r="V7" s="9">
+        <v>-220.499</v>
+      </c>
+      <c r="W7" s="9">
+        <v>-264.44900000000001</v>
+      </c>
+      <c r="X7" s="9">
+        <v>-1485</v>
+      </c>
+      <c r="Y7" s="9">
         <v>4574.79</v>
       </c>
-      <c r="V7" s="9">
+      <c r="Z7" s="9">
         <v>779.27</v>
       </c>
-      <c r="W7" s="9">
+      <c r="AA7" s="9">
         <v>435.51</v>
       </c>
-      <c r="X7" s="9">
+      <c r="AB7" s="9">
         <v>1134.0248999999999</v>
       </c>
-      <c r="Y7" s="9">
+      <c r="AC7" s="9">
         <v>662.53610000000003</v>
       </c>
-      <c r="Z7" s="9">
+      <c r="AD7" s="9">
         <v>-136250.45000000001</v>
       </c>
-      <c r="AA7" s="9">
+      <c r="AE7" s="9">
         <v>-268.16000000000003</v>
       </c>
-      <c r="AB7" s="9">
+      <c r="AF7" s="9">
         <v>-136316.73000000001</v>
       </c>
-      <c r="AC7" s="9">
+      <c r="AG7" s="9">
         <v>-1277.79</v>
       </c>
-      <c r="AD7" s="10">
+      <c r="AH7" s="10">
         <v>5</v>
       </c>
-      <c r="AE7" s="9">
+      <c r="AI7" s="9">
         <v>661.16577729999995</v>
       </c>
-      <c r="AF7" s="10">
+      <c r="AJ7" s="10">
         <v>69</v>
       </c>
-      <c r="AG7" s="7" t="str">
-        <f>IF(I7&lt;U7, "Abicare", "DST")</f>
-        <v>DST</v>
-      </c>
-      <c r="AH7" s="7" t="str">
-        <f>IF(J7&lt;V7, "Abicare", "DST")</f>
-        <v>Abicare</v>
-      </c>
-      <c r="AI7" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AJ7" s="7" t="str">
+      <c r="AK7" s="7" t="str">
         <f t="shared" si="0"/>
         <v>DST</v>
       </c>
-      <c r="AK7" s="7" t="str">
+      <c r="AL7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Abicare</v>
+      </c>
+      <c r="AM7" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>DST</v>
-      </c>
-      <c r="AL7" s="11">
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AN7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>DST</v>
+      </c>
+      <c r="AO7" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>DST</v>
+      </c>
+      <c r="AP7" s="11">
         <v>0</v>
       </c>
-      <c r="AM7" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AN7" s="7" t="str">
+      <c r="AQ7" s="7" t="str">
         <f t="shared" si="6"/>
         <v>Abicare</v>
       </c>
-      <c r="AO7" s="7" t="str">
+      <c r="AR7" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AP7" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AQ7" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AR7" s="7" t="str">
-        <f t="shared" si="1"/>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AS7" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Abicare</v>
+      </c>
+      <c r="AT7" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Abicare</v>
+      </c>
+      <c r="AU7" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Abicare</v>
+      </c>
+      <c r="AV7" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>DST</v>
+      </c>
+      <c r="AW7" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AX7" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AY7" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AZ7" s="7" t="str">
+        <f t="shared" si="9"/>
         <v>DST</v>
       </c>
     </row>
-    <row r="8" spans="1:44" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:52" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>44143</v>
       </c>
@@ -1573,7 +1789,7 @@
         <v>548.83330000000001</v>
       </c>
       <c r="M8" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>578.93299999999999</v>
       </c>
       <c r="N8" s="9">
@@ -1598,87 +1814,115 @@
         <v>-1215</v>
       </c>
       <c r="U8" s="9">
+        <v>-190.82</v>
+      </c>
+      <c r="V8" s="9">
+        <v>-212.02199999999999</v>
+      </c>
+      <c r="W8" s="9">
+        <v>-240.32</v>
+      </c>
+      <c r="X8" s="9">
+        <v>-1215</v>
+      </c>
+      <c r="Y8" s="9">
         <v>4380.78</v>
       </c>
-      <c r="V8" s="9">
+      <c r="Z8" s="9">
         <v>802.96</v>
       </c>
-      <c r="W8" s="9">
+      <c r="AA8" s="9">
         <v>322.82</v>
       </c>
-      <c r="X8" s="9">
+      <c r="AB8" s="9">
         <v>1041.989</v>
       </c>
-      <c r="Y8" s="9">
+      <c r="AC8" s="9">
         <v>676.26179999999999</v>
       </c>
-      <c r="Z8" s="9">
+      <c r="AD8" s="9">
         <v>-334907.56</v>
       </c>
-      <c r="AA8" s="9">
+      <c r="AE8" s="9">
         <v>-280.94</v>
       </c>
-      <c r="AB8" s="9">
+      <c r="AF8" s="9">
         <v>-334957.59999999998</v>
       </c>
-      <c r="AC8" s="9">
+      <c r="AG8" s="9">
         <v>-1288.1099999999999</v>
       </c>
-      <c r="AD8" s="10">
+      <c r="AH8" s="10">
         <v>5</v>
       </c>
-      <c r="AE8" s="9">
+      <c r="AI8" s="9">
         <v>648.61416350000002</v>
       </c>
-      <c r="AF8" s="10">
+      <c r="AJ8" s="10">
         <v>97</v>
       </c>
-      <c r="AG8" s="7" t="str">
-        <f>IF(I8&lt;U8, "Abicare", "DST")</f>
-        <v>DST</v>
-      </c>
-      <c r="AH8" s="7" t="str">
-        <f>IF(J8&lt;V8, "Abicare", "DST")</f>
-        <v>Abicare</v>
-      </c>
-      <c r="AI8" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AJ8" s="7" t="str">
+      <c r="AK8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>DST</v>
       </c>
-      <c r="AK8" s="7" t="str">
+      <c r="AL8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Abicare</v>
+      </c>
+      <c r="AM8" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>DST</v>
-      </c>
-      <c r="AL8" s="11">
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AN8" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>DST</v>
+      </c>
+      <c r="AO8" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>DST</v>
+      </c>
+      <c r="AP8" s="11">
         <v>0</v>
       </c>
-      <c r="AM8" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AN8" s="7" t="str">
+      <c r="AQ8" s="7" t="str">
         <f t="shared" si="6"/>
         <v>Abicare</v>
       </c>
-      <c r="AO8" s="7" t="str">
+      <c r="AR8" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AP8" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AQ8" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Abicare</v>
-      </c>
-      <c r="AR8" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>Abicare</v>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AS8" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>Abicare</v>
+      </c>
+      <c r="AT8" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Abicare</v>
+      </c>
+      <c r="AU8" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Abicare</v>
+      </c>
+      <c r="AV8" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>Abicare</v>
+      </c>
+      <c r="AW8" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AX8" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AY8" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>AbiOSRM</v>
+      </c>
+      <c r="AZ8" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v>AbiOSRM</v>
       </c>
     </row>
   </sheetData>
